--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
+++ b/Logging_VASTRA_GOTALANDS_LAN/Översikt VÄSTRA GÖTALANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45112</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45112</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>45114</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>45114</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45114</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45114</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>45114</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45116</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>45116</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45116</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45117</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45117</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45117</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45117</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45117</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45118</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45118</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45118</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45118</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45118</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45118</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45119</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45119</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45119</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45119</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45119</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45120</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45120</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45120</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45120</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>45120</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45120</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>45120</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45120</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>45120</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>45120</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>45120</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45120</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45120</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>45120</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>45121</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>45121</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>45121</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>45121</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45124</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>45124</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45124</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>45124</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>45124</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45126</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>45126</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>45126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>45126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45126</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45126</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>45127</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>45127</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45127</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45127</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>45127</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>45128</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>45130</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45131</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45131</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45132</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45132</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>45132</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45134</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>45134</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>45134</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45135</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>45137</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45137</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>45137</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>45137</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>45137</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45137</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
